--- a/game_data_final/Pro Recco - AN Brescia.xlsx
+++ b/game_data_final/Pro Recco - AN Brescia.xlsx
@@ -14,81 +14,129 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="142">
   <si>
+    <t>Number of Passes</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
-    <t>Number of Passes</t>
+    <t>Passing Sequence</t>
+  </si>
+  <si>
+    <t>Shooter Number</t>
+  </si>
+  <si>
+    <t>Shooter Position</t>
+  </si>
+  <si>
+    <t>Shooter Hand</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Lob</t>
+  </si>
+  <si>
+    <t>Shot Position</t>
+  </si>
+  <si>
+    <t>Shot Location</t>
+  </si>
+  <si>
+    <t>Assisting Player Number</t>
+  </si>
+  <si>
+    <t>Assisting Player Position</t>
+  </si>
+  <si>
+    <t>Assisting Player Hand</t>
+  </si>
+  <si>
+    <t>Rotation Type</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Dropped Ball</t>
+  </si>
+  <si>
+    <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>End 3-3</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>Link to Play</t>
+  </si>
+  <si>
+    <t>[2,5,6,5,6,1,4,5,6,1]</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6_pocket, 5_center, 1_in, </t>
+  </si>
+  <si>
+    <t>Pro Recco</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DjMKhBW71NY?list=PLM0Gdq8tevj8Iw8wNjjC64NaKoxHBeZG-&amp;t=432</t>
   </si>
   <si>
     <t>did not lose ball but defense forced offense to put ball on water and waste time</t>
   </si>
   <si>
-    <t>Passing Sequence</t>
-  </si>
-  <si>
     <t>quick shot off rebound</t>
   </si>
   <si>
-    <t>Shooter Number</t>
-  </si>
-  <si>
     <t>could not see initial pass as camera but think there was one before play as time was 5:31 when they start showing passing and exclusion happened at 5:33. One of the fouls lead to exclusion</t>
   </si>
   <si>
-    <t>Shooter Position</t>
-  </si>
-  <si>
-    <t>Shooter Hand</t>
-  </si>
-  <si>
     <t>no idea who assisted ball. Think it was 3 by elimination but really unsure</t>
   </si>
   <si>
-    <t>Rebound</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>pass to 2 was very covered. Unsure if 5 rotated center but neither 4 nor 5 looked they they moved much from where they started during the play</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Lob</t>
-  </si>
-  <si>
-    <t>Shot Position</t>
-  </si>
-  <si>
-    <t>Shot Location</t>
-  </si>
-  <si>
     <t>first 3 passes were more to get offense to set up</t>
   </si>
   <si>
-    <t>Assisting Player Number</t>
-  </si>
-  <si>
-    <t>Assisting Player Position</t>
-  </si>
-  <si>
-    <t>Assisting Player Hand</t>
-  </si>
-  <si>
-    <t>Rotation Type</t>
-  </si>
-  <si>
     <t>6 and 1 in went together with 6 having ball. Others rotated. 1 then went in again with ball</t>
   </si>
   <si>
-    <t>Timeout</t>
-  </si>
-  <si>
     <t>red card, gave off time to set up. Also 5 at one point put the wall in the water for no reason - it looked intentional so I'm not counting it as a dropped ball but looked like it slowed down offense. Also goalie blocked ball with face. Cannot really tell cap number of assister</t>
   </si>
   <si>
@@ -101,33 +149,12 @@
     <t>4 swam down pool with ball. 2 and 4 moved much after 6 went in</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>dropped ball at very start from 1 to 6. Definetly dropped ball but before offense was 100% set up. By the time the last past happened 1 pocket basically became top of the 3-3 and 2 slid out to become 1</t>
   </si>
   <si>
-    <t>Turnover</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
     <t>could not see start of pass. Definetly happened bc time moving and shot but i'm not sure who the middle is</t>
   </si>
   <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Dropped Ball</t>
-  </si>
-  <si>
-    <t>Kickout Position</t>
-  </si>
-  <si>
     <t>5 swam ball up. Barely count as 6-5. They sort of swam up had some bad passes and took bad shot. They started and ended in 3-3. Might be worth removing because of how non-normal this 6-5 was</t>
   </si>
   <si>
@@ -143,21 +170,12 @@
     <t>was hard fouled lead to 6-4 so not counting as droped ball -- also good strat to give team time to swim to position</t>
   </si>
   <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>lead to 6-4</t>
-  </si>
-  <si>
     <t>first 5 passes were back and forth waiting for people to be in position</t>
   </si>
   <si>
     <t>check number of pass or drops with what position scored at the end</t>
   </si>
   <si>
-    <t>Link to Play</t>
-  </si>
-  <si>
     <t xml:space="preserve">random thought: positionless polo (at least 6-5) </t>
   </si>
   <si>
@@ -168,24 +186,6 @@
   </si>
   <si>
     <t>maybe add category for 6-5 that are drawn from timeout play</t>
-  </si>
-  <si>
-    <t>[2,5,6,5,6,1,4,5,6,1]</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_pocket, 5_center, 1_in, </t>
-  </si>
-  <si>
-    <t>Pro Recco</t>
-  </si>
-  <si>
-    <t>https://youtu.be/DjMKhBW71NY?list=PLM0Gdq8tevj8Iw8wNjjC64NaKoxHBeZG-&amp;t=432</t>
   </si>
   <si>
     <t>[2]</t>
@@ -444,9 +444,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -455,11 +452,11 @@
     </font>
     <font/>
     <font>
+      <b/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <u/>
@@ -486,27 +483,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -542,88 +533,85 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43527.0</v>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -631,7 +619,7 @@
         <v>9.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>7.0</v>
@@ -649,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1">
         <v>1.0</v>
@@ -658,10 +646,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>8.0</v>
@@ -673,13 +661,13 @@
         <v>0.0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1">
         <v>0.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S2" s="1">
         <v>0.0</v>
@@ -687,10 +675,10 @@
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="3">
         <v>0.26180555555555557</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="3">
         <v>0.24583333333333332</v>
       </c>
       <c r="W2" s="1">
@@ -705,9 +693,8 @@
       <c r="Z2" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="7" t="s">
-        <v>57</v>
+      <c r="AA2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -733,7 +720,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>0.0</v>
@@ -748,22 +735,22 @@
         <v>59</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -771,10 +758,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <v>0.24583333333333332</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="3">
         <v>0.24513888888888888</v>
       </c>
       <c r="W3" s="1">
@@ -789,8 +776,7 @@
       <c r="Z3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AA3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -802,13 +788,13 @@
         <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
@@ -817,7 +803,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -826,19 +812,19 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>62</v>
@@ -847,7 +833,7 @@
         <v>0.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S4" s="1">
         <v>0.0</v>
@@ -855,10 +841,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <v>0.23125</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="3">
         <v>0.21388888888888888</v>
       </c>
       <c r="W4" s="1">
@@ -873,8 +859,7 @@
       <c r="Z4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="7" t="s">
+      <c r="AA4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -901,7 +886,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>0.0</v>
@@ -931,7 +916,7 @@
         <v>0.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -939,10 +924,10 @@
       <c r="T5" s="1">
         <v>1.0</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="3">
         <v>0.21388888888888888</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="3">
         <v>0.19652777777777777</v>
       </c>
       <c r="W5" s="1">
@@ -957,8 +942,7 @@
       <c r="Z5" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="7" t="s">
+      <c r="AA5" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -985,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -1023,10 +1007,10 @@
       <c r="T6" s="1">
         <v>1.0</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="3">
         <v>0.18333333333333332</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="3">
         <v>0.17777777777777778</v>
       </c>
       <c r="W6" s="1">
@@ -1041,8 +1025,7 @@
       <c r="Z6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="7" t="s">
+      <c r="AA6" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1069,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -1107,10 +1090,10 @@
       <c r="T7" s="1">
         <v>1.0</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="3">
         <v>0.15208333333333332</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="3">
         <v>0.1423611111111111</v>
       </c>
       <c r="W7" s="1">
@@ -1125,8 +1108,7 @@
       <c r="Z7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="7" t="s">
+      <c r="AA7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1153,7 +1135,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>0.0</v>
@@ -1183,7 +1165,7 @@
         <v>1.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -1191,10 +1173,10 @@
       <c r="T8" s="1">
         <v>1.0</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="3">
         <v>0.10347222222222222</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="3">
         <v>0.08958333333333333</v>
       </c>
       <c r="W8" s="1">
@@ -1209,8 +1191,7 @@
       <c r="Z8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="7" t="s">
+      <c r="AA8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1275,10 +1256,10 @@
       <c r="T9" s="1">
         <v>1.0</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="3">
         <v>0.07569444444444444</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="3">
         <v>0.06111111111111111</v>
       </c>
       <c r="W9" s="1">
@@ -1293,8 +1274,7 @@
       <c r="Z9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="7" t="s">
+      <c r="AA9" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1348,7 +1328,7 @@
         <v>87</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1356,10 +1336,10 @@
       <c r="T10" s="1">
         <v>1.0</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="3">
         <v>0.004166666666666667</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="3">
         <v>6.944444444444445E-4</v>
       </c>
       <c r="W10" s="1">
@@ -1374,8 +1354,7 @@
       <c r="Z10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="7" t="s">
+      <c r="AA10" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1417,22 +1396,22 @@
         <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="1">
         <v>0.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S11" s="1">
         <v>0.0</v>
@@ -1440,10 +1419,10 @@
       <c r="T11" s="1">
         <v>1.0</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="3">
         <v>6.944444444444445E-4</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="3">
         <v>0.0</v>
       </c>
       <c r="W11" s="1">
@@ -1458,8 +1437,7 @@
       <c r="Z11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="7" t="s">
+      <c r="AA11" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1524,10 +1502,10 @@
       <c r="T12" s="1">
         <v>2.0</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="3">
         <v>0.26180555555555557</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="3">
         <v>0.2520833333333333</v>
       </c>
       <c r="W12" s="1">
@@ -1542,8 +1520,7 @@
       <c r="Z12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="7" t="s">
+      <c r="AA12" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1594,13 +1571,13 @@
         <v>1.0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="1">
         <v>0.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -1608,10 +1585,10 @@
       <c r="T13" s="1">
         <v>2.0</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="3">
         <v>0.2076388888888889</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="3">
         <v>0.19930555555555557</v>
       </c>
       <c r="W13" s="1">
@@ -1626,8 +1603,7 @@
       <c r="Z13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="7" t="s">
+      <c r="AA13" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1639,13 +1615,13 @@
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -1654,7 +1630,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1663,19 +1639,19 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>96</v>
@@ -1692,10 +1668,10 @@
       <c r="T14" s="1">
         <v>2.0</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="3">
         <v>0.15763888888888888</v>
       </c>
       <c r="W14" s="1">
@@ -1710,8 +1686,7 @@
       <c r="Z14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="7" t="s">
+      <c r="AA14" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1776,10 +1751,10 @@
       <c r="T15" s="1">
         <v>2.0</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="3">
         <v>0.06319444444444444</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="3">
         <v>0.04791666666666667</v>
       </c>
       <c r="W15" s="1">
@@ -1794,8 +1769,7 @@
       <c r="Z15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="7" t="s">
+      <c r="AA15" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1822,7 +1796,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1">
         <v>1.0</v>
@@ -1846,7 +1820,7 @@
         <v>1.0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="1">
         <v>0.0</v>
@@ -1860,10 +1834,10 @@
       <c r="T16" s="1">
         <v>3.0</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="3">
         <v>0.2625</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="3">
         <v>0.25972222222222224</v>
       </c>
       <c r="W16" s="1">
@@ -1878,8 +1852,7 @@
       <c r="Z16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="7" t="s">
+      <c r="AA16" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1906,7 +1879,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
         <v>1.0</v>
@@ -1936,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S17" s="1">
         <v>0.0</v>
@@ -1944,10 +1917,10 @@
       <c r="T17" s="1">
         <v>3.0</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="3">
         <v>0.23472222222222222</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="3">
         <v>0.21944444444444444</v>
       </c>
       <c r="W17" s="1">
@@ -1962,8 +1935,7 @@
       <c r="Z17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="7" t="s">
+      <c r="AA17" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1990,7 +1962,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1">
         <v>0.0</v>
@@ -2028,10 +2000,10 @@
       <c r="T18" s="1">
         <v>3.0</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="3">
         <v>0.17777777777777778</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="3">
         <v>0.16111111111111112</v>
       </c>
       <c r="W18" s="1">
@@ -2046,8 +2018,7 @@
       <c r="Z18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="7" t="s">
+      <c r="AA18" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2074,7 +2045,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1">
         <v>1.0</v>
@@ -2112,10 +2083,10 @@
       <c r="T19" s="1">
         <v>3.0</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="3">
         <v>0.13125</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="3">
         <v>0.11875</v>
       </c>
       <c r="W19" s="1">
@@ -2130,8 +2101,7 @@
       <c r="Z19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="7" t="s">
+      <c r="AA19" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2188,7 +2158,7 @@
         <v>0.0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S20" s="1">
         <v>0.0</v>
@@ -2196,10 +2166,10 @@
       <c r="T20" s="1">
         <v>3.0</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="3">
         <v>0.03263888888888889</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="3">
         <v>0.022916666666666665</v>
       </c>
       <c r="W20" s="1">
@@ -2214,8 +2184,7 @@
       <c r="Z20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="7" t="s">
+      <c r="AA20" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2242,7 +2211,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1">
         <v>1.0</v>
@@ -2272,7 +2241,7 @@
         <v>0.0</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S21" s="1">
         <v>0.0</v>
@@ -2280,10 +2249,10 @@
       <c r="T21" s="1">
         <v>3.0</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="3">
         <v>0.022916666666666665</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="3">
         <v>0.017361111111111112</v>
       </c>
       <c r="W21" s="1">
@@ -2298,8 +2267,7 @@
       <c r="Z21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="7" t="s">
+      <c r="AA21" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2350,7 +2318,7 @@
         <v>1.0</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="1">
         <v>0.0</v>
@@ -2364,10 +2332,10 @@
       <c r="T22" s="1">
         <v>3.0</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="3">
         <v>0.015277777777777777</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="3">
         <v>0.0</v>
       </c>
       <c r="W22" s="1">
@@ -2382,8 +2350,7 @@
       <c r="Z22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="7" t="s">
+      <c r="AA22" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2440,7 +2407,7 @@
         <v>0.0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S23" s="1">
         <v>0.0</v>
@@ -2448,10 +2415,10 @@
       <c r="T23" s="1">
         <v>4.0</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="3">
         <v>0.30416666666666664</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="3">
         <v>0.2923611111111111</v>
       </c>
       <c r="W23" s="1">
@@ -2466,8 +2433,7 @@
       <c r="Z23" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="7" t="s">
+      <c r="AA23" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2494,7 +2460,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1">
         <v>0.0</v>
@@ -2524,7 +2490,7 @@
         <v>0.0</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S24" s="1">
         <v>0.0</v>
@@ -2532,10 +2498,10 @@
       <c r="T24" s="1">
         <v>4.0</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="3">
         <v>0.2923611111111111</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="3">
         <v>0.28680555555555554</v>
       </c>
       <c r="W24" s="1">
@@ -2550,8 +2516,7 @@
       <c r="Z24" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="7" t="s">
+      <c r="AA24" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2608,7 +2573,7 @@
         <v>0.0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S25" s="1">
         <v>0.0</v>
@@ -2616,10 +2581,10 @@
       <c r="T25" s="1">
         <v>4.0</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="3">
         <v>0.23055555555555557</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="3">
         <v>0.21388888888888888</v>
       </c>
       <c r="W25" s="1">
@@ -2634,8 +2599,7 @@
       <c r="Z25" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="7" t="s">
+      <c r="AA25" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2647,13 +2611,13 @@
         <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1">
         <v>0.0</v>
@@ -2662,7 +2626,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1">
         <v>0.0</v>
@@ -2671,28 +2635,28 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="1">
         <v>0.0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S26" s="1">
         <v>0.0</v>
@@ -2700,10 +2664,10 @@
       <c r="T26" s="1">
         <v>4.0</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="3">
         <v>0.1875</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="3">
         <v>0.1840277777777778</v>
       </c>
       <c r="W26" s="1">
@@ -2718,10 +2682,7 @@
       <c r="Z26" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AB26" s="7" t="s">
+      <c r="AA26" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2748,7 +2709,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1">
         <v>0.0</v>
@@ -2786,10 +2747,10 @@
       <c r="T27" s="1">
         <v>4.0</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="3">
         <v>0.1597222222222222</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="3">
         <v>0.14722222222222223</v>
       </c>
       <c r="W27" s="1">
@@ -2804,8 +2765,7 @@
       <c r="Z27" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="7" t="s">
+      <c r="AA27" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2832,7 +2792,7 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I28" s="1">
         <v>1.0</v>
@@ -2867,10 +2827,10 @@
       <c r="T28" s="1">
         <v>4.0</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="3">
         <v>0.08958333333333333</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="3">
         <v>0.07847222222222222</v>
       </c>
       <c r="W28" s="1">
@@ -2885,7 +2845,7 @@
       <c r="Z28" s="1">
         <v>0.0</v>
       </c>
-      <c r="AB28" s="7" t="s">
+      <c r="AA28" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2912,7 +2872,7 @@
         <v>1.0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1">
         <v>1.0</v>
@@ -2950,10 +2910,10 @@
       <c r="T29" s="1">
         <v>4.0</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="3">
         <v>0.025694444444444443</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="3">
         <v>0.0125</v>
       </c>
       <c r="W29" s="1">
@@ -2968,7 +2928,7 @@
       <c r="Z29" s="1">
         <v>0.0</v>
       </c>
-      <c r="AB29" s="7" t="s">
+      <c r="AA29" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3019,13 +2979,13 @@
         <v>0.0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="1">
         <v>0.0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="S30" s="1">
         <v>0.0</v>
@@ -3033,10 +2993,10 @@
       <c r="T30" s="1">
         <v>4.0</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="3">
         <v>0.007638888888888889</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="3">
         <v>0.003472222222222222</v>
       </c>
       <c r="W30" s="1">
@@ -3051,41 +3011,41 @@
       <c r="Z30" s="1">
         <v>0.0</v>
       </c>
-      <c r="AB30" s="7" t="s">
+      <c r="AA30" s="5" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AB2"/>
-    <hyperlink r:id="rId2" ref="AB3"/>
-    <hyperlink r:id="rId3" ref="AB4"/>
-    <hyperlink r:id="rId4" ref="AB5"/>
-    <hyperlink r:id="rId5" ref="AB6"/>
-    <hyperlink r:id="rId6" ref="AB7"/>
-    <hyperlink r:id="rId7" ref="AB8"/>
-    <hyperlink r:id="rId8" ref="AB9"/>
-    <hyperlink r:id="rId9" ref="AB10"/>
-    <hyperlink r:id="rId10" ref="AB11"/>
-    <hyperlink r:id="rId11" ref="AB12"/>
-    <hyperlink r:id="rId12" ref="AB13"/>
-    <hyperlink r:id="rId13" ref="AB14"/>
-    <hyperlink r:id="rId14" ref="AB15"/>
-    <hyperlink r:id="rId15" ref="AB16"/>
-    <hyperlink r:id="rId16" ref="AB17"/>
-    <hyperlink r:id="rId17" ref="AB18"/>
-    <hyperlink r:id="rId18" ref="AB19"/>
-    <hyperlink r:id="rId19" ref="AB20"/>
-    <hyperlink r:id="rId20" ref="AB21"/>
-    <hyperlink r:id="rId21" ref="AB22"/>
-    <hyperlink r:id="rId22" ref="AB23"/>
-    <hyperlink r:id="rId23" ref="AB24"/>
-    <hyperlink r:id="rId24" ref="AB25"/>
-    <hyperlink r:id="rId25" ref="AB26"/>
-    <hyperlink r:id="rId26" ref="AB27"/>
-    <hyperlink r:id="rId27" ref="AB28"/>
-    <hyperlink r:id="rId28" ref="AB29"/>
-    <hyperlink r:id="rId29" ref="AB30"/>
+    <hyperlink r:id="rId1" ref="AA2"/>
+    <hyperlink r:id="rId2" ref="AA3"/>
+    <hyperlink r:id="rId3" ref="AA4"/>
+    <hyperlink r:id="rId4" ref="AA5"/>
+    <hyperlink r:id="rId5" ref="AA6"/>
+    <hyperlink r:id="rId6" ref="AA7"/>
+    <hyperlink r:id="rId7" ref="AA8"/>
+    <hyperlink r:id="rId8" ref="AA9"/>
+    <hyperlink r:id="rId9" ref="AA10"/>
+    <hyperlink r:id="rId10" ref="AA11"/>
+    <hyperlink r:id="rId11" ref="AA12"/>
+    <hyperlink r:id="rId12" ref="AA13"/>
+    <hyperlink r:id="rId13" ref="AA14"/>
+    <hyperlink r:id="rId14" ref="AA15"/>
+    <hyperlink r:id="rId15" ref="AA16"/>
+    <hyperlink r:id="rId16" ref="AA17"/>
+    <hyperlink r:id="rId17" ref="AA18"/>
+    <hyperlink r:id="rId18" ref="AA19"/>
+    <hyperlink r:id="rId19" ref="AA20"/>
+    <hyperlink r:id="rId20" ref="AA21"/>
+    <hyperlink r:id="rId21" ref="AA22"/>
+    <hyperlink r:id="rId22" ref="AA23"/>
+    <hyperlink r:id="rId23" ref="AA24"/>
+    <hyperlink r:id="rId24" ref="AA25"/>
+    <hyperlink r:id="rId25" ref="AA26"/>
+    <hyperlink r:id="rId26" ref="AA27"/>
+    <hyperlink r:id="rId27" ref="AA28"/>
+    <hyperlink r:id="rId28" ref="AA29"/>
+    <hyperlink r:id="rId29" ref="AA30"/>
   </hyperlinks>
   <drawing r:id="rId30"/>
 </worksheet>
@@ -3103,125 +3063,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/game_data_final/Pro Recco - AN Brescia.xlsx
+++ b/game_data_final/Pro Recco - AN Brescia.xlsx
@@ -17,13 +17,40 @@
     <t>Number of Passes</t>
   </si>
   <si>
+    <t>Passing Sequence</t>
+  </si>
+  <si>
+    <t>Shooter Number</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
-    <t>Passing Sequence</t>
-  </si>
-  <si>
-    <t>Shooter Number</t>
+    <t>did not lose ball but defense forced offense to put ball on water and waste time</t>
+  </si>
+  <si>
+    <t>quick shot off rebound</t>
+  </si>
+  <si>
+    <t>could not see initial pass as camera but think there was one before play as time was 5:31 when they start showing passing and exclusion happened at 5:33. One of the fouls lead to exclusion</t>
+  </si>
+  <si>
+    <t>no idea who assisted ball. Think it was 3 by elimination but really unsure</t>
+  </si>
+  <si>
+    <t>pass to 2 was very covered. Unsure if 5 rotated center but neither 4 nor 5 looked they they moved much from where they started during the play</t>
+  </si>
+  <si>
+    <t>first 3 passes were more to get offense to set up</t>
+  </si>
+  <si>
+    <t>6 and 1 in went together with 6 having ball. Others rotated. 1 then went in again with ball</t>
+  </si>
+  <si>
+    <t>red card, gave off time to set up. Also 5 at one point put the wall in the water for no reason - it looked intentional so I'm not counting it as a dropped ball but looked like it slowed down offense. Also goalie blocked ball with face. Cannot really tell cap number of assister</t>
+  </si>
+  <si>
+    <t>started in 3-3 and 3 moved in</t>
   </si>
   <si>
     <t>Shooter Position</t>
@@ -35,6 +62,9 @@
     <t>Rebound</t>
   </si>
   <si>
+    <t>bad pass at from 4 -&gt; 1 prevented catch and shoot</t>
+  </si>
+  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -50,12 +80,18 @@
     <t>Shot Position</t>
   </si>
   <si>
+    <t>4 swam down pool with ball. 2 and 4 moved much after 6 went in</t>
+  </si>
+  <si>
     <t>Shot Location</t>
   </si>
   <si>
     <t>Assisting Player Number</t>
   </si>
   <si>
+    <t>dropped ball at very start from 1 to 6. Definetly dropped ball but before offense was 100% set up. By the time the last past happened 1 pocket basically became top of the 3-3 and 2 slid out to become 1</t>
+  </si>
+  <si>
     <t>Assisting Player Position</t>
   </si>
   <si>
@@ -83,6 +119,9 @@
     <t>End Time</t>
   </si>
   <si>
+    <t>could not see start of pass. Definetly happened bc time moving and shot but i'm not sure who the middle is</t>
+  </si>
+  <si>
     <t>Dropped Ball</t>
   </si>
   <si>
@@ -95,9 +134,24 @@
     <t>5m</t>
   </si>
   <si>
+    <t>5 swam ball up. Barely count as 6-5. They sort of swam up had some bad passes and took bad shot. They started and ended in 3-3. Might be worth removing because of how non-normal this 6-5 was</t>
+  </si>
+  <si>
     <t>Link to Play</t>
   </si>
   <si>
+    <t>noticed clock was a little delayed. missed shot but got rebound --&gt; this is not a 6-5</t>
+  </si>
+  <si>
+    <t>shot waas very close to going in. spent first bit of passing waiting for people to go to position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass from half to 4 at start. don't know how to count that so treating it like goalie pass and not counting it. </t>
+  </si>
+  <si>
+    <t>was hard fouled lead to 6-4 so not counting as droped ball -- also good strat to give team time to swim to position</t>
+  </si>
+  <si>
     <t>[2,5,6,5,6,1,4,5,6,1]</t>
   </si>
   <si>
@@ -113,67 +167,13 @@
     <t>Pro Recco</t>
   </si>
   <si>
+    <t>first 5 passes were back and forth waiting for people to be in position</t>
+  </si>
+  <si>
+    <t>check number of pass or drops with what position scored at the end</t>
+  </si>
+  <si>
     <t>https://youtu.be/DjMKhBW71NY?list=PLM0Gdq8tevj8Iw8wNjjC64NaKoxHBeZG-&amp;t=432</t>
-  </si>
-  <si>
-    <t>did not lose ball but defense forced offense to put ball on water and waste time</t>
-  </si>
-  <si>
-    <t>quick shot off rebound</t>
-  </si>
-  <si>
-    <t>could not see initial pass as camera but think there was one before play as time was 5:31 when they start showing passing and exclusion happened at 5:33. One of the fouls lead to exclusion</t>
-  </si>
-  <si>
-    <t>no idea who assisted ball. Think it was 3 by elimination but really unsure</t>
-  </si>
-  <si>
-    <t>pass to 2 was very covered. Unsure if 5 rotated center but neither 4 nor 5 looked they they moved much from where they started during the play</t>
-  </si>
-  <si>
-    <t>first 3 passes were more to get offense to set up</t>
-  </si>
-  <si>
-    <t>6 and 1 in went together with 6 having ball. Others rotated. 1 then went in again with ball</t>
-  </si>
-  <si>
-    <t>red card, gave off time to set up. Also 5 at one point put the wall in the water for no reason - it looked intentional so I'm not counting it as a dropped ball but looked like it slowed down offense. Also goalie blocked ball with face. Cannot really tell cap number of assister</t>
-  </si>
-  <si>
-    <t>started in 3-3 and 3 moved in</t>
-  </si>
-  <si>
-    <t>bad pass at from 4 -&gt; 1 prevented catch and shoot</t>
-  </si>
-  <si>
-    <t>4 swam down pool with ball. 2 and 4 moved much after 6 went in</t>
-  </si>
-  <si>
-    <t>dropped ball at very start from 1 to 6. Definetly dropped ball but before offense was 100% set up. By the time the last past happened 1 pocket basically became top of the 3-3 and 2 slid out to become 1</t>
-  </si>
-  <si>
-    <t>could not see start of pass. Definetly happened bc time moving and shot but i'm not sure who the middle is</t>
-  </si>
-  <si>
-    <t>5 swam ball up. Barely count as 6-5. They sort of swam up had some bad passes and took bad shot. They started and ended in 3-3. Might be worth removing because of how non-normal this 6-5 was</t>
-  </si>
-  <si>
-    <t>noticed clock was a little delayed. missed shot but got rebound --&gt; this is not a 6-5</t>
-  </si>
-  <si>
-    <t>shot waas very close to going in. spent first bit of passing waiting for people to go to position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass from half to 4 at start. don't know how to count that so treating it like goalie pass and not counting it. </t>
-  </si>
-  <si>
-    <t>was hard fouled lead to 6-4 so not counting as droped ball -- also good strat to give team time to swim to position</t>
-  </si>
-  <si>
-    <t>first 5 passes were back and forth waiting for people to be in position</t>
-  </si>
-  <si>
-    <t>check number of pass or drops with what position scored at the end</t>
   </si>
   <si>
     <t xml:space="preserve">random thought: positionless polo (at least 6-5) </t>
@@ -493,11 +493,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -536,82 +536,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -619,7 +619,7 @@
         <v>9.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>7.0</v>
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1">
         <v>1.0</v>
@@ -646,10 +646,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1">
         <v>8.0</v>
@@ -661,13 +661,13 @@
         <v>0.0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="1">
         <v>0.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S2" s="1">
         <v>0.0</v>
@@ -675,10 +675,10 @@
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="4">
         <v>0.26180555555555557</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="4">
         <v>0.24583333333333332</v>
       </c>
       <c r="W2" s="1">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1">
         <v>0.0</v>
@@ -735,22 +735,22 @@
         <v>59</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -758,10 +758,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="4">
         <v>0.24583333333333332</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="4">
         <v>0.24513888888888888</v>
       </c>
       <c r="W3" s="1">
@@ -788,13 +788,13 @@
         <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
@@ -803,7 +803,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -812,19 +812,19 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>62</v>
@@ -833,7 +833,7 @@
         <v>0.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S4" s="1">
         <v>0.0</v>
@@ -841,10 +841,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="4">
         <v>0.23125</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="4">
         <v>0.21388888888888888</v>
       </c>
       <c r="W4" s="1">
@@ -886,7 +886,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1">
         <v>0.0</v>
@@ -916,7 +916,7 @@
         <v>0.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -924,10 +924,10 @@
       <c r="T5" s="1">
         <v>1.0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="4">
         <v>0.21388888888888888</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="4">
         <v>0.19652777777777777</v>
       </c>
       <c r="W5" s="1">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -1007,10 +1007,10 @@
       <c r="T6" s="1">
         <v>1.0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>0.18333333333333332</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>0.17777777777777778</v>
       </c>
       <c r="W6" s="1">
@@ -1052,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -1090,10 +1090,10 @@
       <c r="T7" s="1">
         <v>1.0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="4">
         <v>0.15208333333333332</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="4">
         <v>0.1423611111111111</v>
       </c>
       <c r="W7" s="1">
@@ -1135,7 +1135,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0.0</v>
@@ -1165,7 +1165,7 @@
         <v>1.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -1173,10 +1173,10 @@
       <c r="T8" s="1">
         <v>1.0</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="4">
         <v>0.10347222222222222</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="4">
         <v>0.08958333333333333</v>
       </c>
       <c r="W8" s="1">
@@ -1256,10 +1256,10 @@
       <c r="T9" s="1">
         <v>1.0</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="4">
         <v>0.07569444444444444</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="4">
         <v>0.06111111111111111</v>
       </c>
       <c r="W9" s="1">
@@ -1328,7 +1328,7 @@
         <v>87</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1336,10 +1336,10 @@
       <c r="T10" s="1">
         <v>1.0</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="4">
         <v>0.004166666666666667</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <v>6.944444444444445E-4</v>
       </c>
       <c r="W10" s="1">
@@ -1396,22 +1396,22 @@
         <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="1">
         <v>0.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S11" s="1">
         <v>0.0</v>
@@ -1419,10 +1419,10 @@
       <c r="T11" s="1">
         <v>1.0</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="4">
         <v>6.944444444444445E-4</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="4">
         <v>0.0</v>
       </c>
       <c r="W11" s="1">
@@ -1502,10 +1502,10 @@
       <c r="T12" s="1">
         <v>2.0</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="4">
         <v>0.26180555555555557</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
         <v>0.2520833333333333</v>
       </c>
       <c r="W12" s="1">
@@ -1571,13 +1571,13 @@
         <v>1.0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="1">
         <v>0.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -1585,10 +1585,10 @@
       <c r="T13" s="1">
         <v>2.0</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="4">
         <v>0.2076388888888889</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="4">
         <v>0.19930555555555557</v>
       </c>
       <c r="W13" s="1">
@@ -1615,13 +1615,13 @@
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -1630,7 +1630,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1639,19 +1639,19 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>96</v>
@@ -1668,10 +1668,10 @@
       <c r="T14" s="1">
         <v>2.0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="4">
         <v>0.15763888888888888</v>
       </c>
       <c r="W14" s="1">
@@ -1751,10 +1751,10 @@
       <c r="T15" s="1">
         <v>2.0</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="4">
         <v>0.06319444444444444</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="4">
         <v>0.04791666666666667</v>
       </c>
       <c r="W15" s="1">
@@ -1796,7 +1796,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I16" s="1">
         <v>1.0</v>
@@ -1820,7 +1820,7 @@
         <v>1.0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="1">
         <v>0.0</v>
@@ -1834,10 +1834,10 @@
       <c r="T16" s="1">
         <v>3.0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="4">
         <v>0.2625</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="4">
         <v>0.25972222222222224</v>
       </c>
       <c r="W16" s="1">
@@ -1879,7 +1879,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1">
         <v>1.0</v>
@@ -1909,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S17" s="1">
         <v>0.0</v>
@@ -1917,10 +1917,10 @@
       <c r="T17" s="1">
         <v>3.0</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="4">
         <v>0.23472222222222222</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="4">
         <v>0.21944444444444444</v>
       </c>
       <c r="W17" s="1">
@@ -1962,7 +1962,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I18" s="1">
         <v>0.0</v>
@@ -2000,10 +2000,10 @@
       <c r="T18" s="1">
         <v>3.0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="4">
         <v>0.17777777777777778</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="4">
         <v>0.16111111111111112</v>
       </c>
       <c r="W18" s="1">
@@ -2045,7 +2045,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I19" s="1">
         <v>1.0</v>
@@ -2083,10 +2083,10 @@
       <c r="T19" s="1">
         <v>3.0</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="4">
         <v>0.13125</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="4">
         <v>0.11875</v>
       </c>
       <c r="W19" s="1">
@@ -2158,7 +2158,7 @@
         <v>0.0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S20" s="1">
         <v>0.0</v>
@@ -2166,10 +2166,10 @@
       <c r="T20" s="1">
         <v>3.0</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="4">
         <v>0.03263888888888889</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="4">
         <v>0.022916666666666665</v>
       </c>
       <c r="W20" s="1">
@@ -2211,7 +2211,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I21" s="1">
         <v>1.0</v>
@@ -2241,7 +2241,7 @@
         <v>0.0</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S21" s="1">
         <v>0.0</v>
@@ -2249,10 +2249,10 @@
       <c r="T21" s="1">
         <v>3.0</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="4">
         <v>0.022916666666666665</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="4">
         <v>0.017361111111111112</v>
       </c>
       <c r="W21" s="1">
@@ -2318,7 +2318,7 @@
         <v>1.0</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="1">
         <v>0.0</v>
@@ -2332,10 +2332,10 @@
       <c r="T22" s="1">
         <v>3.0</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="4">
         <v>0.015277777777777777</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="4">
         <v>0.0</v>
       </c>
       <c r="W22" s="1">
@@ -2407,7 +2407,7 @@
         <v>0.0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S23" s="1">
         <v>0.0</v>
@@ -2415,10 +2415,10 @@
       <c r="T23" s="1">
         <v>4.0</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="4">
         <v>0.30416666666666664</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="4">
         <v>0.2923611111111111</v>
       </c>
       <c r="W23" s="1">
@@ -2460,7 +2460,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1">
         <v>0.0</v>
@@ -2490,7 +2490,7 @@
         <v>0.0</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S24" s="1">
         <v>0.0</v>
@@ -2498,10 +2498,10 @@
       <c r="T24" s="1">
         <v>4.0</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="4">
         <v>0.2923611111111111</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="4">
         <v>0.28680555555555554</v>
       </c>
       <c r="W24" s="1">
@@ -2573,7 +2573,7 @@
         <v>0.0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S25" s="1">
         <v>0.0</v>
@@ -2581,10 +2581,10 @@
       <c r="T25" s="1">
         <v>4.0</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="4">
         <v>0.23055555555555557</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="4">
         <v>0.21388888888888888</v>
       </c>
       <c r="W25" s="1">
@@ -2611,13 +2611,13 @@
         <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1">
         <v>0.0</v>
@@ -2626,7 +2626,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I26" s="1">
         <v>0.0</v>
@@ -2635,28 +2635,28 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="1">
         <v>0.0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S26" s="1">
         <v>0.0</v>
@@ -2664,10 +2664,10 @@
       <c r="T26" s="1">
         <v>4.0</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="4">
         <v>0.1875</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="4">
         <v>0.1840277777777778</v>
       </c>
       <c r="W26" s="1">
@@ -2709,7 +2709,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I27" s="1">
         <v>0.0</v>
@@ -2747,10 +2747,10 @@
       <c r="T27" s="1">
         <v>4.0</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="4">
         <v>0.1597222222222222</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="4">
         <v>0.14722222222222223</v>
       </c>
       <c r="W27" s="1">
@@ -2792,7 +2792,7 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I28" s="1">
         <v>1.0</v>
@@ -2827,10 +2827,10 @@
       <c r="T28" s="1">
         <v>4.0</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="4">
         <v>0.08958333333333333</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="4">
         <v>0.07847222222222222</v>
       </c>
       <c r="W28" s="1">
@@ -2872,7 +2872,7 @@
         <v>1.0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I29" s="1">
         <v>1.0</v>
@@ -2910,10 +2910,10 @@
       <c r="T29" s="1">
         <v>4.0</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="4">
         <v>0.025694444444444443</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="4">
         <v>0.0125</v>
       </c>
       <c r="W29" s="1">
@@ -2979,13 +2979,13 @@
         <v>0.0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="1">
         <v>0.0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S30" s="1">
         <v>0.0</v>
@@ -2993,10 +2993,10 @@
       <c r="T30" s="1">
         <v>4.0</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="4">
         <v>0.007638888888888889</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="4">
         <v>0.003472222222222222</v>
       </c>
       <c r="W30" s="1">
@@ -3063,105 +3063,105 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
